--- a/boq_reference.xlsx
+++ b/boq_reference.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BOQ-Management-App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1018BDE-4AFF-4922-8895-E542800552BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94EF33F8-4939-497D-92F2-3A35298BED9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A3BC394D-C93B-484C-9217-FCA43397AC83}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{A3BC394D-C93B-484C-9217-FCA43397AC83}"/>
   </bookViews>
   <sheets>
     <sheet name="BOQ (2)" sheetId="1" r:id="rId1"/>
@@ -2260,22 +2260,24 @@
   </sheetPr>
   <dimension ref="A1:K196"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" style="22" customWidth="1"/>
-    <col min="3" max="6" width="12.6640625" style="30" customWidth="1"/>
-    <col min="7" max="7" width="60.33203125" style="31" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" style="25" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" style="34" customWidth="1"/>
-    <col min="10" max="10" width="12.88671875" style="36" customWidth="1"/>
-    <col min="11" max="11" width="12.88671875" style="32" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="15"/>
+    <col min="1" max="1" width="9.7109375" style="35" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="22" customWidth="1"/>
+    <col min="3" max="6" width="12.7109375" style="30" customWidth="1"/>
+    <col min="7" max="7" width="60.28515625" style="31" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="25" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" style="34" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" style="36" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" style="32" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2310,7 +2312,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="54" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -2335,7 +2337,7 @@
       <c r="J2" s="13"/>
       <c r="K2" s="14"/>
     </row>
-    <row r="3" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -2366,7 +2368,7 @@
       </c>
       <c r="K3" s="19"/>
     </row>
-    <row r="4" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21">
         <v>3</v>
       </c>
@@ -2400,7 +2402,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="21">
         <v>4</v>
       </c>
@@ -2434,7 +2436,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21">
         <v>5</v>
       </c>
@@ -2468,7 +2470,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -2499,7 +2501,7 @@
       </c>
       <c r="K7" s="19"/>
     </row>
-    <row r="8" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21">
         <v>7</v>
       </c>
@@ -2533,7 +2535,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21">
         <v>8</v>
       </c>
@@ -2567,7 +2569,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21">
         <v>9</v>
       </c>
@@ -2601,7 +2603,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -2632,7 +2634,7 @@
       </c>
       <c r="K11" s="19"/>
     </row>
-    <row r="12" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="21">
         <v>11</v>
       </c>
@@ -2666,7 +2668,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="21">
         <v>12</v>
       </c>
@@ -2700,7 +2702,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="21">
         <v>13</v>
       </c>
@@ -2734,7 +2736,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -2763,7 +2765,7 @@
       <c r="J15" s="18"/>
       <c r="K15" s="19"/>
     </row>
-    <row r="16" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21">
         <v>15</v>
       </c>
@@ -2797,7 +2799,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21">
         <v>16</v>
       </c>
@@ -2831,7 +2833,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="21">
         <v>17</v>
       </c>
@@ -2865,7 +2867,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -2894,7 +2896,7 @@
       <c r="J19" s="18"/>
       <c r="K19" s="19"/>
     </row>
-    <row r="20" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21">
         <v>19</v>
       </c>
@@ -2928,7 +2930,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21">
         <v>20</v>
       </c>
@@ -2962,7 +2964,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="21">
         <v>21</v>
       </c>
@@ -2996,7 +2998,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -3021,7 +3023,7 @@
       <c r="J23" s="13"/>
       <c r="K23" s="14"/>
     </row>
-    <row r="24" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="27" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -3052,7 +3054,7 @@
       </c>
       <c r="K24" s="14"/>
     </row>
-    <row r="25" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="21">
         <v>24</v>
       </c>
@@ -3086,7 +3088,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="21">
         <v>25</v>
       </c>
@@ -3120,7 +3122,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="54" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>26</v>
       </c>
@@ -3151,7 +3153,7 @@
       </c>
       <c r="K27" s="14"/>
     </row>
-    <row r="28" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="21">
         <v>27</v>
       </c>
@@ -3185,7 +3187,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="21">
         <v>28</v>
       </c>
@@ -3219,7 +3221,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="29" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" s="29" customFormat="1" ht="54" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>29</v>
       </c>
@@ -3250,7 +3252,7 @@
       </c>
       <c r="K30" s="19"/>
     </row>
-    <row r="31" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="21">
         <v>30</v>
       </c>
@@ -3284,7 +3286,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="21">
         <v>31</v>
       </c>
@@ -3318,7 +3320,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>32</v>
       </c>
@@ -3343,7 +3345,7 @@
       <c r="J33" s="18"/>
       <c r="K33" s="19"/>
     </row>
-    <row r="34" spans="1:11" s="29" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" s="29" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>33</v>
       </c>
@@ -3378,7 +3380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="29" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" s="29" customFormat="1" ht="54" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>34</v>
       </c>
@@ -3413,7 +3415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="69" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>35</v>
       </c>
@@ -3448,7 +3450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="29" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" s="29" customFormat="1" ht="81" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>36</v>
       </c>
@@ -3483,7 +3485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>37</v>
       </c>
@@ -3518,7 +3520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>38</v>
       </c>
@@ -3553,7 +3555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="29" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" s="29" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>39</v>
       </c>
@@ -3588,7 +3590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="27" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>40</v>
       </c>
@@ -3623,7 +3625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="29" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" s="29" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>41</v>
       </c>
@@ -3650,7 +3652,7 @@
       <c r="J42" s="18"/>
       <c r="K42" s="19"/>
     </row>
-    <row r="43" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>42</v>
       </c>
@@ -3675,7 +3677,7 @@
       <c r="J43" s="18"/>
       <c r="K43" s="19"/>
     </row>
-    <row r="44" spans="1:11" s="29" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" s="29" customFormat="1" ht="148.5" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>43</v>
       </c>
@@ -3700,7 +3702,7 @@
       <c r="J44" s="18"/>
       <c r="K44" s="19"/>
     </row>
-    <row r="45" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>44</v>
       </c>
@@ -3735,7 +3737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>45</v>
       </c>
@@ -3770,7 +3772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>46</v>
       </c>
@@ -3805,7 +3807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>47</v>
       </c>
@@ -3840,7 +3842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="29" customFormat="1" ht="138" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" s="29" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>48</v>
       </c>
@@ -3865,7 +3867,7 @@
       <c r="J49" s="18"/>
       <c r="K49" s="19"/>
     </row>
-    <row r="50" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
         <v>49</v>
       </c>
@@ -3900,7 +3902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
         <v>50</v>
       </c>
@@ -3935,7 +3937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
         <v>51</v>
       </c>
@@ -3970,7 +3972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
         <v>52</v>
       </c>
@@ -4005,7 +4007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
         <v>53</v>
       </c>
@@ -4038,7 +4040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:11" s="29" customFormat="1" ht="179.4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" s="29" customFormat="1" ht="175.5" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
         <v>54</v>
       </c>
@@ -4073,7 +4075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:11" s="29" customFormat="1" ht="138" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" s="29" customFormat="1" ht="148.5" x14ac:dyDescent="0.25">
       <c r="A56" s="7">
         <v>55</v>
       </c>
@@ -4108,7 +4110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:11" s="29" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" s="29" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
         <v>56</v>
       </c>
@@ -4137,7 +4139,7 @@
       <c r="J57" s="18"/>
       <c r="K57" s="19"/>
     </row>
-    <row r="58" spans="1:11" ht="193.2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" ht="189" x14ac:dyDescent="0.25">
       <c r="A58" s="7">
         <v>57</v>
       </c>
@@ -4168,7 +4170,7 @@
       </c>
       <c r="K58" s="14"/>
     </row>
-    <row r="59" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="21">
         <v>58</v>
       </c>
@@ -4202,7 +4204,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="60" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="21">
         <v>59</v>
       </c>
@@ -4236,7 +4238,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="61" spans="1:11" s="29" customFormat="1" ht="165.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" s="29" customFormat="1" ht="162" x14ac:dyDescent="0.25">
       <c r="A61" s="7">
         <v>60</v>
       </c>
@@ -4267,7 +4269,7 @@
       </c>
       <c r="K61" s="19"/>
     </row>
-    <row r="62" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="21">
         <v>61</v>
       </c>
@@ -4301,7 +4303,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="63" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="21">
         <v>62</v>
       </c>
@@ -4335,7 +4337,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="64" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="7">
         <v>63</v>
       </c>
@@ -4362,7 +4364,7 @@
       <c r="J64" s="18"/>
       <c r="K64" s="19"/>
     </row>
-    <row r="65" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="7">
         <v>64</v>
       </c>
@@ -4393,7 +4395,7 @@
       </c>
       <c r="K65" s="19"/>
     </row>
-    <row r="66" spans="1:11" s="20" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" s="20" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A66" s="21">
         <v>65</v>
       </c>
@@ -4427,7 +4429,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="67" spans="1:11" s="20" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" s="20" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A67" s="21">
         <v>66</v>
       </c>
@@ -4461,7 +4463,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="68" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="21">
         <v>67</v>
       </c>
@@ -4495,7 +4497,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="69" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="7">
         <v>68</v>
       </c>
@@ -4526,7 +4528,7 @@
       </c>
       <c r="K69" s="19"/>
     </row>
-    <row r="70" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="21">
         <v>69</v>
       </c>
@@ -4560,7 +4562,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="71" spans="1:11" s="20" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" s="20" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A71" s="21">
         <v>70</v>
       </c>
@@ -4594,7 +4596,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="72" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="21">
         <v>71</v>
       </c>
@@ -4628,7 +4630,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="7">
         <v>72</v>
       </c>
@@ -4659,7 +4661,7 @@
       </c>
       <c r="K73" s="14"/>
     </row>
-    <row r="74" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="21">
         <v>73</v>
       </c>
@@ -4693,7 +4695,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="75" spans="1:11" s="20" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" s="20" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A75" s="21">
         <v>74</v>
       </c>
@@ -4727,7 +4729,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="76" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="21">
         <v>75</v>
       </c>
@@ -4761,7 +4763,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="7">
         <v>76</v>
       </c>
@@ -4792,7 +4794,7 @@
       </c>
       <c r="K77" s="14"/>
     </row>
-    <row r="78" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="21">
         <v>77</v>
       </c>
@@ -4826,7 +4828,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="79" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="21">
         <v>78</v>
       </c>
@@ -4860,7 +4862,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="80" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="21">
         <v>79</v>
       </c>
@@ -4894,7 +4896,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="7">
         <v>80</v>
       </c>
@@ -4925,7 +4927,7 @@
       </c>
       <c r="K81" s="14"/>
     </row>
-    <row r="82" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="21">
         <v>81</v>
       </c>
@@ -4959,7 +4961,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="83" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="21">
         <v>82</v>
       </c>
@@ -4993,7 +4995,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="84" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="21">
         <v>83</v>
       </c>
@@ -5027,7 +5029,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="85" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="7">
         <v>84</v>
       </c>
@@ -5058,7 +5060,7 @@
       </c>
       <c r="K85" s="19"/>
     </row>
-    <row r="86" spans="1:11" s="20" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" s="20" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A86" s="21">
         <v>85</v>
       </c>
@@ -5092,7 +5094,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="87" spans="1:11" s="20" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" s="20" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A87" s="21">
         <v>86</v>
       </c>
@@ -5126,7 +5128,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="88" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="7">
         <v>87</v>
       </c>
@@ -5157,7 +5159,7 @@
       </c>
       <c r="K88" s="19"/>
     </row>
-    <row r="89" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="21">
         <v>88</v>
       </c>
@@ -5191,7 +5193,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="90" spans="1:11" s="20" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" s="20" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A90" s="21">
         <v>89</v>
       </c>
@@ -5225,7 +5227,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="91" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="7">
         <v>90</v>
       </c>
@@ -5256,7 +5258,7 @@
       </c>
       <c r="K91" s="19"/>
     </row>
-    <row r="92" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="21">
         <v>91</v>
       </c>
@@ -5290,7 +5292,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="93" spans="1:11" s="20" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" s="20" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A93" s="21">
         <v>92</v>
       </c>
@@ -5324,7 +5326,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="94" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="7">
         <v>93</v>
       </c>
@@ -5355,7 +5357,7 @@
       </c>
       <c r="K94" s="19"/>
     </row>
-    <row r="95" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="21">
         <v>94</v>
       </c>
@@ -5389,7 +5391,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="96" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="21">
         <v>95</v>
       </c>
@@ -5423,7 +5425,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="97" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="21">
         <v>96</v>
       </c>
@@ -5457,7 +5459,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="7">
         <v>97</v>
       </c>
@@ -5488,7 +5490,7 @@
       </c>
       <c r="K98" s="14"/>
     </row>
-    <row r="99" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="21">
         <v>98</v>
       </c>
@@ -5522,7 +5524,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="100" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="21">
         <v>99</v>
       </c>
@@ -5556,7 +5558,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="101" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="21">
         <v>100</v>
       </c>
@@ -5590,7 +5592,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="21">
         <v>101</v>
       </c>
@@ -5620,7 +5622,7 @@
         <v>1544740.96</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="7">
         <v>102</v>
       </c>
@@ -5649,7 +5651,7 @@
       <c r="J103" s="18"/>
       <c r="K103" s="14"/>
     </row>
-    <row r="104" spans="1:11" s="20" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" s="20" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A104" s="21">
         <v>103</v>
       </c>
@@ -5683,7 +5685,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="105" spans="1:11" s="20" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" s="20" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A105" s="21">
         <v>104</v>
       </c>
@@ -5717,7 +5719,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="106" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="21">
         <v>105</v>
       </c>
@@ -5751,7 +5753,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="7">
         <v>106</v>
       </c>
@@ -5780,7 +5782,7 @@
       <c r="J107" s="18"/>
       <c r="K107" s="14"/>
     </row>
-    <row r="108" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="21">
         <v>107</v>
       </c>
@@ -5814,7 +5816,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="109" spans="1:11" s="20" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" s="20" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A109" s="21">
         <v>108</v>
       </c>
@@ -5848,7 +5850,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="110" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="21">
         <v>109</v>
       </c>
@@ -5882,7 +5884,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="7">
         <v>110</v>
       </c>
@@ -5911,7 +5913,7 @@
       <c r="J111" s="18"/>
       <c r="K111" s="14"/>
     </row>
-    <row r="112" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="21">
         <v>111</v>
       </c>
@@ -5945,7 +5947,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="113" spans="1:11" s="20" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" s="20" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A113" s="21">
         <v>112</v>
       </c>
@@ -5979,7 +5981,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="114" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="21">
         <v>113</v>
       </c>
@@ -6013,7 +6015,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="7">
         <v>114</v>
       </c>
@@ -6042,7 +6044,7 @@
       <c r="J115" s="18"/>
       <c r="K115" s="14"/>
     </row>
-    <row r="116" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="21">
         <v>115</v>
       </c>
@@ -6076,7 +6078,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="117" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="21">
         <v>116</v>
       </c>
@@ -6110,7 +6112,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="118" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="21">
         <v>117</v>
       </c>
@@ -6144,7 +6146,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="7">
         <v>118</v>
       </c>
@@ -6173,7 +6175,7 @@
       <c r="J119" s="18"/>
       <c r="K119" s="14"/>
     </row>
-    <row r="120" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="21">
         <v>119</v>
       </c>
@@ -6207,7 +6209,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="121" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="21">
         <v>120</v>
       </c>
@@ -6241,7 +6243,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="122" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="21">
         <v>121</v>
       </c>
@@ -6275,7 +6277,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="7">
         <v>122</v>
       </c>
@@ -6304,7 +6306,7 @@
       <c r="J123" s="18"/>
       <c r="K123" s="14"/>
     </row>
-    <row r="124" spans="1:11" s="20" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" s="20" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A124" s="21">
         <v>123</v>
       </c>
@@ -6338,7 +6340,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="125" spans="1:11" s="20" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" s="20" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A125" s="21">
         <v>124</v>
       </c>
@@ -6372,7 +6374,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="7">
         <v>125</v>
       </c>
@@ -6401,7 +6403,7 @@
       <c r="J126" s="18"/>
       <c r="K126" s="14"/>
     </row>
-    <row r="127" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="21">
         <v>126</v>
       </c>
@@ -6435,7 +6437,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="128" spans="1:11" s="20" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" s="20" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A128" s="21">
         <v>127</v>
       </c>
@@ -6469,7 +6471,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="7">
         <v>128</v>
       </c>
@@ -6498,7 +6500,7 @@
       <c r="J129" s="18"/>
       <c r="K129" s="14"/>
     </row>
-    <row r="130" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="21">
         <v>129</v>
       </c>
@@ -6532,7 +6534,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="131" spans="1:11" s="20" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" s="20" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A131" s="21">
         <v>130</v>
       </c>
@@ -6566,7 +6568,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="7">
         <v>131</v>
       </c>
@@ -6595,7 +6597,7 @@
       <c r="J132" s="18"/>
       <c r="K132" s="14"/>
     </row>
-    <row r="133" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="21">
         <v>132</v>
       </c>
@@ -6629,7 +6631,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="134" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="21">
         <v>133</v>
       </c>
@@ -6663,7 +6665,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="135" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="21">
         <v>134</v>
       </c>
@@ -6697,7 +6699,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="7">
         <v>135</v>
       </c>
@@ -6726,7 +6728,7 @@
       <c r="J136" s="18"/>
       <c r="K136" s="14"/>
     </row>
-    <row r="137" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="21">
         <v>136</v>
       </c>
@@ -6760,7 +6762,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="138" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="21">
         <v>137</v>
       </c>
@@ -6794,7 +6796,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="139" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="21">
         <v>138</v>
       </c>
@@ -6828,7 +6830,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="140" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="7">
         <v>139</v>
       </c>
@@ -6859,7 +6861,7 @@
       </c>
       <c r="K140" s="19"/>
     </row>
-    <row r="141" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="7">
         <v>140</v>
       </c>
@@ -6884,7 +6886,7 @@
       <c r="J141" s="18"/>
       <c r="K141" s="19"/>
     </row>
-    <row r="142" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="21">
         <v>141</v>
       </c>
@@ -6918,7 +6920,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="143" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="21">
         <v>142</v>
       </c>
@@ -6952,7 +6954,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="144" spans="1:11" s="20" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" s="20" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A144" s="21">
         <v>143</v>
       </c>
@@ -6986,7 +6988,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="145" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="7">
         <v>144</v>
       </c>
@@ -7011,7 +7013,7 @@
       <c r="J145" s="18"/>
       <c r="K145" s="19"/>
     </row>
-    <row r="146" spans="1:11" s="20" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" s="20" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A146" s="21">
         <v>145</v>
       </c>
@@ -7045,7 +7047,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="147" spans="1:11" s="20" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" s="20" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A147" s="21">
         <v>146</v>
       </c>
@@ -7079,7 +7081,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="148" spans="1:11" s="20" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" s="20" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A148" s="21">
         <v>147</v>
       </c>
@@ -7113,7 +7115,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="149" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="7">
         <v>148</v>
       </c>
@@ -7140,7 +7142,7 @@
       <c r="J149" s="18"/>
       <c r="K149" s="19"/>
     </row>
-    <row r="150" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="7">
         <v>149</v>
       </c>
@@ -7171,7 +7173,7 @@
       </c>
       <c r="K150" s="19"/>
     </row>
-    <row r="151" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="21">
         <v>150</v>
       </c>
@@ -7205,7 +7207,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="152" spans="1:11" s="20" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" s="20" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A152" s="21">
         <v>151</v>
       </c>
@@ -7239,7 +7241,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="153" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="21">
         <v>152</v>
       </c>
@@ -7273,7 +7275,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="154" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="7">
         <v>153</v>
       </c>
@@ -7302,7 +7304,7 @@
       <c r="J154" s="33"/>
       <c r="K154" s="19"/>
     </row>
-    <row r="155" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="21">
         <v>154</v>
       </c>
@@ -7336,7 +7338,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="156" spans="1:11" s="20" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" s="20" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A156" s="21">
         <v>155</v>
       </c>
@@ -7370,7 +7372,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="157" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="21">
         <v>156</v>
       </c>
@@ -7404,7 +7406,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="158" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="7">
         <v>157</v>
       </c>
@@ -7433,7 +7435,7 @@
       <c r="J158" s="18"/>
       <c r="K158" s="19"/>
     </row>
-    <row r="159" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="21">
         <v>158</v>
       </c>
@@ -7467,7 +7469,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="160" spans="1:11" s="20" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" s="20" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A160" s="21">
         <v>159</v>
       </c>
@@ -7501,7 +7503,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="161" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="21">
         <v>160</v>
       </c>
@@ -7535,7 +7537,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="162" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="7">
         <v>161</v>
       </c>
@@ -7566,7 +7568,7 @@
       </c>
       <c r="K162" s="19"/>
     </row>
-    <row r="163" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="21">
         <v>162</v>
       </c>
@@ -7600,7 +7602,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="164" spans="1:11" s="20" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" s="20" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A164" s="21">
         <v>163</v>
       </c>
@@ -7634,7 +7636,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="165" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="21">
         <v>164</v>
       </c>
@@ -7668,7 +7670,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="166" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="7">
         <v>165</v>
       </c>
@@ -7697,7 +7699,7 @@
       <c r="J166" s="18"/>
       <c r="K166" s="19"/>
     </row>
-    <row r="167" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="21">
         <v>166</v>
       </c>
@@ -7731,7 +7733,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="168" spans="1:11" s="20" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" s="20" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A168" s="21">
         <v>167</v>
       </c>
@@ -7765,7 +7767,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="169" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="21">
         <v>168</v>
       </c>
@@ -7799,7 +7801,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="170" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" ht="54" x14ac:dyDescent="0.25">
       <c r="A170" s="7">
         <v>169</v>
       </c>
@@ -7826,7 +7828,7 @@
       <c r="J170" s="18"/>
       <c r="K170" s="14"/>
     </row>
-    <row r="171" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="7">
         <v>170</v>
       </c>
@@ -7857,7 +7859,7 @@
       </c>
       <c r="K171" s="19"/>
     </row>
-    <row r="172" spans="1:11" s="20" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" s="20" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A172" s="21">
         <v>171</v>
       </c>
@@ -7891,7 +7893,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="173" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="21">
         <v>172</v>
       </c>
@@ -7925,7 +7927,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="174" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="7">
         <v>173</v>
       </c>
@@ -7956,7 +7958,7 @@
       </c>
       <c r="K174" s="19"/>
     </row>
-    <row r="175" spans="1:11" s="20" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" s="20" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A175" s="21">
         <v>174</v>
       </c>
@@ -7990,7 +7992,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="176" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="21">
         <v>175</v>
       </c>
@@ -8024,7 +8026,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="177" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="7">
         <v>176</v>
       </c>
@@ -8051,7 +8053,7 @@
       <c r="J177" s="18"/>
       <c r="K177" s="19"/>
     </row>
-    <row r="178" spans="1:11" s="20" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" s="20" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A178" s="21">
         <v>177</v>
       </c>
@@ -8085,7 +8087,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="179" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="21">
         <v>178</v>
       </c>
@@ -8119,7 +8121,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="180" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="7">
         <v>179</v>
       </c>
@@ -8146,7 +8148,7 @@
       <c r="J180" s="18"/>
       <c r="K180" s="19"/>
     </row>
-    <row r="181" spans="1:11" s="20" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" s="20" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A181" s="21">
         <v>180</v>
       </c>
@@ -8180,7 +8182,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="182" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="21">
         <v>181</v>
       </c>
@@ -8214,7 +8216,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="183" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="7">
         <v>182</v>
       </c>
@@ -8243,7 +8245,7 @@
       <c r="J183" s="18"/>
       <c r="K183" s="19"/>
     </row>
-    <row r="184" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="7">
         <v>183</v>
       </c>
@@ -8278,7 +8280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="7">
         <v>184</v>
       </c>
@@ -8313,7 +8315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="7">
         <v>185</v>
       </c>
@@ -8348,7 +8350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="7">
         <v>186</v>
       </c>
@@ -8383,7 +8385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="7">
         <v>187</v>
       </c>
@@ -8418,7 +8420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="7">
         <v>188</v>
       </c>
@@ -8453,7 +8455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="7">
         <v>189</v>
       </c>
@@ -8486,7 +8488,7 @@
       </c>
       <c r="K190" s="19"/>
     </row>
-    <row r="191" spans="1:11" s="20" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" s="20" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A191" s="21">
         <v>190</v>
       </c>
@@ -8520,7 +8522,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="192" spans="1:11" s="20" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" s="20" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A192" s="21">
         <v>191</v>
       </c>
@@ -8554,7 +8556,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="193" spans="1:11" s="20" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" s="20" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A193" s="21">
         <v>192</v>
       </c>
@@ -8588,7 +8590,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="194" spans="1:11" s="29" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" s="29" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A194" s="21">
         <v>193</v>
       </c>
@@ -8622,7 +8624,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="195" spans="1:11" s="29" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" s="29" customFormat="1" ht="54" x14ac:dyDescent="0.25">
       <c r="A195" s="21">
         <v>194</v>
       </c>
@@ -8656,7 +8658,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="196" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A196" s="21">
         <v>195</v>
       </c>
